--- a/Environment/NRemovalComparison.xlsx
+++ b/Environment/NRemovalComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoleschrad/Documents/SaltikovLab/Sequencing/MAR_All_Sites/Environment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoleschrad/Documents/16SManuscript/MAR_All_Sites/Environment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{343B114C-2E86-384A-9374-F5C771AF7DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D09C11-28FA-0140-ACCB-0C656F85BA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="460" windowWidth="26040" windowHeight="18540" activeTab="3" xr2:uid="{FA4A62B3-B923-2945-8ABD-1C29C8D4F8A4}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="26040" windowHeight="18540" activeTab="1" xr2:uid="{FA4A62B3-B923-2945-8ABD-1C29C8D4F8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="NS" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -457,30 +457,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1513,37 +1513,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C232AA-FF58-C54D-8927-62B309A966FF}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="A1:B2 I1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1601,12 +1601,6 @@
       </c>
       <c r="F3">
         <v>0.910008704</v>
-      </c>
-      <c r="G3">
-        <v>38.975984330000003</v>
-      </c>
-      <c r="H3">
-        <v>-0.26577924000000003</v>
       </c>
       <c r="I3">
         <v>3.703753056</v>
@@ -2611,18 +2605,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3382,21 +3376,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63768D89-B3B9-A94F-BDF3-0092DBF145C0}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
